--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting_User.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting_User.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,10 @@
   </si>
   <si>
     <t>功能权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -391,15 +395,18 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -407,20 +414,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting_User.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting_User.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -31,6 +31,14 @@
   </si>
   <si>
     <t>功能列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单管家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶叶一主号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -86,12 +94,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -133,7 +144,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,7 +179,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -380,7 +391,7 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -414,7 +425,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting_User.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting_User.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,11 +34,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>茶叶一主号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老婆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>账单管家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茶叶一主号</t>
+  </si>
+  <si>
+    <t>账单管家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多多,朱美娜,张斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联人列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多多,朱美娜,张斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test,多多,朱美娜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -399,14 +422,14 @@
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,39 +439,61 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="17" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="18" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="19" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/Zxc.Python/zxcPy.Robot/Setting/Setting_User.xlsx
+++ b/src/Zxc.Python/zxcPy.Robot/Setting/Setting_User.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,30 +38,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>关联人列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多多、朱美娜、张斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test、多多、朱美娜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>老婆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>账单管家</t>
-  </si>
-  <si>
-    <t>账单管家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多多,朱美娜,张斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联人列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多多,朱美娜,张斌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test,多多,朱美娜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -411,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -419,10 +416,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
@@ -440,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -451,38 +448,42 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="b">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="7" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="8" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -512,11 +513,6 @@
     <row r="32" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="34" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
